--- a/BackTest/2020-01-22 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-22 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,19 @@
         <v>2369.41505570947</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>266.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>266.5</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +589,19 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +628,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +667,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +700,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +733,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +766,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +799,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +832,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +865,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +898,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +931,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +964,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +997,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1028,19 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>266.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>266.5</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1065,23 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>266.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1106,23 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>266.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1147,19 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>266.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>266.5</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1184,23 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>266.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1225,23 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>266.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1266,19 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>266.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>266.5</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1305,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1342,21 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1381,15 @@
         <v>-27672.98494429053</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1414,19 @@
         <v>-27672.98494429053</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>265.1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1453,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1490,23 @@
         <v>-70465.21144429053</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>263.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1531,23 @@
         <v>-70451.43804429052</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>263.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,22 +1572,23 @@
         <v>-70484.47104429052</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>265.1</v>
       </c>
       <c r="J33" t="n">
         <v>265.1</v>
       </c>
-      <c r="K33" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1612,26 +1613,23 @@
         <v>-70584.48804429053</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J34" t="n">
-        <v>264</v>
-      </c>
-      <c r="K34" t="n">
         <v>265.1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1656,26 +1654,23 @@
         <v>-69638.59364429052</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>263.2</v>
       </c>
       <c r="J35" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="K35" t="n">
         <v>265.1</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1700,26 +1695,23 @@
         <v>-69664.00364429053</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>264.5</v>
       </c>
       <c r="J36" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="K36" t="n">
         <v>265.1</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1744,26 +1736,23 @@
         <v>-69662.98494429053</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J37" t="n">
-        <v>264</v>
-      </c>
-      <c r="K37" t="n">
         <v>265.1</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1788,26 +1777,23 @@
         <v>-67359.97574429052</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>264.4</v>
       </c>
       <c r="J38" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="K38" t="n">
         <v>265.1</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1832,26 +1818,23 @@
         <v>-67359.97574429052</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>265.1</v>
       </c>
       <c r="J39" t="n">
         <v>265.1</v>
       </c>
-      <c r="K39" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1876,26 +1859,21 @@
         <v>-66983.41734429053</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>265.1</v>
       </c>
-      <c r="K40" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1920,26 +1898,21 @@
         <v>-69283.36904429054</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="K41" t="n">
         <v>265.1</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1964,26 +1937,21 @@
         <v>-69224.45874429053</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>264.1</v>
-      </c>
-      <c r="K42" t="n">
         <v>265.1</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2008,24 +1976,23 @@
         <v>-59471.61464429053</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="J43" t="n">
         <v>265.1</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2050,24 +2017,23 @@
         <v>-59446.81374429053</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="J44" t="n">
         <v>265.1</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2092,24 +2058,23 @@
         <v>-59534.69444429053</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+        <v>266.6</v>
+      </c>
+      <c r="J45" t="n">
         <v>265.1</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2134,24 +2099,23 @@
         <v>-59534.69444429053</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="J46" t="n">
         <v>265.1</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2176,24 +2140,23 @@
         <v>-59545.53994429053</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="J47" t="n">
         <v>265.1</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2220,22 +2183,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>265.1</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2260,24 +2220,21 @@
         <v>-58859.63914429053</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>265.1</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2304,22 +2261,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>265.1</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2344,24 +2298,21 @@
         <v>-58878.04324429053</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>265.1</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1.011597510373444</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2388,22 +2339,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2428,24 +2370,15 @@
         <v>-58727.94324429053</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2472,22 +2405,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2514,22 +2438,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2556,22 +2471,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2598,22 +2504,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2640,22 +2537,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2682,22 +2570,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2724,22 +2603,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2766,22 +2636,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2808,22 +2669,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2850,22 +2702,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2892,22 +2735,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2934,22 +2768,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2976,22 +2801,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3018,22 +2834,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3060,22 +2867,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3102,22 +2900,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3144,22 +2933,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3186,22 +2966,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3228,22 +2999,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3268,24 +3030,15 @@
         <v>-57165.00594429053</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3312,22 +3065,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3354,22 +3098,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3396,22 +3131,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3438,22 +3164,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3480,22 +3197,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3522,22 +3230,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3564,22 +3263,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3604,24 +3294,15 @@
         <v>-57294.77624429054</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3646,24 +3327,15 @@
         <v>-57288.65064429054</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3688,24 +3360,15 @@
         <v>-62505.28984429054</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3732,22 +3395,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3772,24 +3426,15 @@
         <v>-60712.32034429054</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3816,22 +3461,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3856,24 +3492,15 @@
         <v>-60232.01014429054</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3900,22 +3527,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3940,24 +3558,15 @@
         <v>-61891.12544429054</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3984,22 +3593,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4026,22 +3626,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4068,22 +3659,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4108,24 +3690,15 @@
         <v>-58833.55594429054</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4152,22 +3725,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4194,22 +3758,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4236,22 +3791,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4276,24 +3822,15 @@
         <v>-58419.22184429054</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4320,22 +3857,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4362,22 +3890,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4404,22 +3923,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4446,22 +3956,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4488,22 +3989,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4530,22 +4022,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4570,24 +4053,15 @@
         <v>-52325.84144429055</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1.021782346284421</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4612,18 +4086,15 @@
         <v>-52325.84144429055</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4650,16 +4121,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4686,16 +4154,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4720,18 +4185,15 @@
         <v>-44498.65754429055</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4756,18 +4218,15 @@
         <v>-44498.65754429055</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4794,16 +4253,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4828,18 +4284,15 @@
         <v>-44762.11814429055</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4864,18 +4317,15 @@
         <v>-43459.19734429055</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4900,18 +4350,15 @@
         <v>-42860.34733913629</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4936,18 +4383,15 @@
         <v>-46113.13973913628</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4972,18 +4416,15 @@
         <v>-46313.13973913628</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5008,18 +4449,15 @@
         <v>-46313.13973913628</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5044,18 +4482,15 @@
         <v>-42222.58553913629</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5080,18 +4515,15 @@
         <v>-39728.29583913628</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5116,18 +4548,15 @@
         <v>-40098.32333913628</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5152,18 +4581,15 @@
         <v>-40098.32333913628</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5188,18 +4614,15 @@
         <v>-42796.00053913628</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5226,18 +4649,15 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-22 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>2369.41505570947</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>266.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -590,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -629,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -764,7 +748,7 @@
         <v>2369.41505570947</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -830,7 +814,7 @@
         <v>2375.41505570947</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -863,7 +847,7 @@
         <v>2341.81505570947</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -896,7 +880,7 @@
         <v>2341.81505570947</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -929,7 +913,7 @@
         <v>2343.81505570947</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -962,7 +946,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -995,7 +979,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1030,12 +1014,8 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>266.5</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1067,17 +1047,9 @@
       <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1080,9 @@
       <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1149,12 +1113,8 @@
       <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>266.5</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1186,17 +1146,9 @@
       <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1227,17 +1179,9 @@
       <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1268,12 +1212,8 @@
       <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="I25" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>266.5</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1303,17 +1243,11 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1276,11 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1381,7 +1309,7 @@
         <v>-27672.98494429053</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1416,12 +1344,8 @@
       <c r="H29" t="n">
         <v>2</v>
       </c>
-      <c r="I29" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>265.1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1451,17 +1375,11 @@
         <v>-64770.71144429053</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1492,17 +1410,9 @@
       <c r="H31" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
-        <v>263.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1531,19 +1441,11 @@
         <v>-70451.43804429052</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1572,19 +1474,11 @@
         <v>-70484.47104429052</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1613,19 +1507,11 @@
         <v>-70584.48804429053</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>264</v>
-      </c>
-      <c r="J34" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1654,19 +1540,11 @@
         <v>-69638.59364429052</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1695,19 +1573,11 @@
         <v>-69664.00364429053</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1736,19 +1606,11 @@
         <v>-69662.98494429053</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>264</v>
-      </c>
-      <c r="J37" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1777,19 +1639,11 @@
         <v>-67359.97574429052</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1818,19 +1672,11 @@
         <v>-67359.97574429052</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1862,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1901,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1940,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1976,19 +1804,11 @@
         <v>-59471.61464429053</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2017,19 +1837,11 @@
         <v>-59446.81374429053</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>266.3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2058,19 +1870,11 @@
         <v>-59534.69444429053</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>266.6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2099,19 +1903,11 @@
         <v>-59534.69444429053</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2140,19 +1936,11 @@
         <v>-59545.53994429053</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2184,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2220,17 +2002,11 @@
         <v>-58859.63914429053</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2262,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2298,19 +2068,13 @@
         <v>-58878.04324429053</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>265.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.011597510373444</v>
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr"/>
     </row>
@@ -2370,7 +2134,7 @@
         <v>-58727.94324429053</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3030,7 +2794,7 @@
         <v>-57165.00594429053</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3296,8 +3060,12 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>267.8</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3327,11 +3095,17 @@
         <v>-57288.65064429054</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3362,9 +3136,17 @@
       <c r="H83" t="n">
         <v>1</v>
       </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3393,10 +3175,14 @@
         <v>-62505.28984429054</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>267.6</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3428,9 +3214,17 @@
       <c r="H85" t="n">
         <v>1</v>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3459,11 +3253,19 @@
         <v>-60712.32034429054</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3494,8 +3296,12 @@
       <c r="H87" t="n">
         <v>1</v>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>269.7</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3525,11 +3331,19 @@
         <v>-61595.89074429054</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3560,9 +3374,17 @@
       <c r="H89" t="n">
         <v>1</v>
       </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3591,10 +3413,14 @@
         <v>-62253.62074429054</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>269.5</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3624,11 +3450,19 @@
         <v>-59000.82834429054</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J91" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3657,11 +3491,19 @@
         <v>-59028.55594429054</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3692,8 +3534,12 @@
       <c r="H93" t="n">
         <v>1</v>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>269.3</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3723,11 +3569,19 @@
         <v>-58717.55594429054</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3756,11 +3610,19 @@
         <v>-58717.55594429054</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="J95" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3789,11 +3651,19 @@
         <v>-58504.55594429054</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="J96" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3824,9 +3694,17 @@
       <c r="H97" t="n">
         <v>1</v>
       </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3858,8 +3736,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3891,8 +3775,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3924,8 +3814,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3957,8 +3853,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3990,8 +3892,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4023,8 +3931,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4053,11 +3967,17 @@
         <v>-52325.84144429055</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4086,11 +4006,17 @@
         <v>-52325.84144429055</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4122,8 +4048,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4155,8 +4087,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4185,11 +4123,17 @@
         <v>-44498.65754429055</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +4162,17 @@
         <v>-44498.65754429055</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4254,8 +4204,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +4240,17 @@
         <v>-44762.11814429055</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4317,11 +4279,17 @@
         <v>-43459.19734429055</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4350,11 +4318,17 @@
         <v>-42860.34733913629</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4383,11 +4357,17 @@
         <v>-46113.13973913628</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4416,11 +4396,17 @@
         <v>-46313.13973913628</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4449,11 +4435,17 @@
         <v>-46313.13973913628</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4482,11 +4474,17 @@
         <v>-42222.58553913629</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4515,11 +4513,17 @@
         <v>-39728.29583913628</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4548,11 +4552,17 @@
         <v>-40098.32333913628</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4581,11 +4591,17 @@
         <v>-40098.32333913628</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4614,11 +4630,17 @@
         <v>-42796.00053913628</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4650,14 +4672,20 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
       <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-22 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>2369.41505570947</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2375.41505570947</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2341.81505570947</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-27672.98494429053</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-64770.71144429053</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-70465.21144429053</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-58862.04324429053</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-58730.04324429053</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-58727.94324429053</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-58730.04324429053</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-58734.44734429053</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-56819.30414429053</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-56906.80294429053</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-56906.80294429053</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-57528.36824429053</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-57165.00594429053</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-53800.58624429053</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-57662.63034429054</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,14 +3058,10 @@
         <v>-57294.77624429054</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>267.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3095,1045 +3091,901 @@
         <v>-57288.65064429054</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="C83" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="E83" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="F83" t="n">
+        <v>5216.6392</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-62505.28984429054</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="C84" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.7333</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-62505.28984429054</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="D85" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1792.9695</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-60712.32034429054</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="C86" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="F86" t="n">
+        <v>127.548</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-60712.32034429054</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="D87" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="F87" t="n">
+        <v>480.3102</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-60232.01014429054</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1363.8806</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-61595.89074429054</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>295.2347</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-61891.12544429054</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="C90" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>362.4953</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-62253.62074429054</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3252.7924</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-59000.82834429054</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>27.7276</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-59028.55594429054</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>195</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-58833.55594429054</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="E94" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>116</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-58717.55594429054</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="C95" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="F95" t="n">
+        <v>346.069</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-58717.55594429054</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="C96" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="F96" t="n">
+        <v>213</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-58504.55594429054</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>85.33410000000001</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-58419.22184429054</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="C98" t="n">
+        <v>271</v>
+      </c>
+      <c r="D98" t="n">
+        <v>271</v>
+      </c>
+      <c r="E98" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4379.808</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-54039.41384429055</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>271</v>
+      </c>
+      <c r="C99" t="n">
+        <v>271</v>
+      </c>
+      <c r="D99" t="n">
+        <v>271</v>
+      </c>
+      <c r="E99" t="n">
+        <v>271</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7635.2292</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-54039.41384429055</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>271</v>
+      </c>
+      <c r="C100" t="n">
+        <v>271</v>
+      </c>
+      <c r="D100" t="n">
+        <v>271</v>
+      </c>
+      <c r="E100" t="n">
+        <v>271</v>
+      </c>
+      <c r="F100" t="n">
+        <v>500.7597</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-54039.41384429055</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>271</v>
+      </c>
+      <c r="C101" t="n">
+        <v>271</v>
+      </c>
+      <c r="D101" t="n">
+        <v>271</v>
+      </c>
+      <c r="E101" t="n">
+        <v>271</v>
+      </c>
+      <c r="F101" t="n">
+        <v>452.2141</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-54039.41384429055</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>272</v>
+      </c>
+      <c r="C102" t="n">
+        <v>272</v>
+      </c>
+      <c r="D102" t="n">
+        <v>272</v>
+      </c>
+      <c r="E102" t="n">
+        <v>272</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-54027.85384429055</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>271</v>
+      </c>
+      <c r="J102" t="n">
+        <v>271</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-52227.85384429055</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>271</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="C83" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="D83" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="E83" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="F83" t="n">
-        <v>5216.6392</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-62505.28984429054</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="E104" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>97.9876</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-52325.84144429055</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>271</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="C84" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="D84" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="E84" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2.7333</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-62505.28984429054</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="C85" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="D85" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="E85" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1792.9695</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-60712.32034429054</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="K85" t="inlineStr">
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11.4294</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-52325.84144429055</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>127.8217</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-52325.84144429055</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>273.3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>273.3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7025.0611</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-45300.78034429055</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="C86" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="D86" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="E86" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="F86" t="n">
-        <v>127.548</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-60712.32034429054</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="K86" t="inlineStr">
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>273.9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>273.9</v>
+      </c>
+      <c r="E108" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>802.1228</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-44498.65754429055</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="C87" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="D87" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="E87" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="F87" t="n">
-        <v>480.3102</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-60232.01014429054</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="E88" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1363.8806</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-61595.89074429054</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="J88" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="C89" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="D89" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="E89" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="F89" t="n">
-        <v>295.2347</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-61891.12544429054</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="C90" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="D90" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="E90" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="F90" t="n">
-        <v>362.4953</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-62253.62074429054</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="C91" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="D91" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="E91" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3252.7924</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-59000.82834429054</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="C92" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="D92" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="E92" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="F92" t="n">
-        <v>27.7276</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-59028.55594429054</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="D93" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="E93" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>195</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-58833.55594429054</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="C94" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="D94" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="E94" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="F94" t="n">
-        <v>116</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-58717.55594429054</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="C95" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="D95" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="E95" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="F95" t="n">
-        <v>346.069</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-58717.55594429054</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="C96" t="n">
-        <v>269.9</v>
-      </c>
-      <c r="D96" t="n">
-        <v>269.9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="F96" t="n">
-        <v>213</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-58504.55594429054</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="J96" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="C97" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="E97" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="F97" t="n">
-        <v>85.33410000000001</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-58419.22184429054</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>269.9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="C98" t="n">
-        <v>271</v>
-      </c>
-      <c r="D98" t="n">
-        <v>271</v>
-      </c>
-      <c r="E98" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="F98" t="n">
-        <v>4379.808</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-54039.41384429055</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>271</v>
-      </c>
-      <c r="C99" t="n">
-        <v>271</v>
-      </c>
-      <c r="D99" t="n">
-        <v>271</v>
-      </c>
-      <c r="E99" t="n">
-        <v>271</v>
-      </c>
-      <c r="F99" t="n">
-        <v>7635.2292</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-54039.41384429055</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>271</v>
-      </c>
-      <c r="C100" t="n">
-        <v>271</v>
-      </c>
-      <c r="D100" t="n">
-        <v>271</v>
-      </c>
-      <c r="E100" t="n">
-        <v>271</v>
-      </c>
-      <c r="F100" t="n">
-        <v>500.7597</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-54039.41384429055</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>271</v>
-      </c>
-      <c r="C101" t="n">
-        <v>271</v>
-      </c>
-      <c r="D101" t="n">
-        <v>271</v>
-      </c>
-      <c r="E101" t="n">
-        <v>271</v>
-      </c>
-      <c r="F101" t="n">
-        <v>452.2141</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-54039.41384429055</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>272</v>
-      </c>
-      <c r="C102" t="n">
-        <v>272</v>
-      </c>
-      <c r="D102" t="n">
-        <v>272</v>
-      </c>
-      <c r="E102" t="n">
-        <v>272</v>
-      </c>
-      <c r="F102" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-54027.85384429055</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="E103" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1800</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-52227.85384429055</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="C104" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="D104" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="E104" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="F104" t="n">
-        <v>97.9876</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-52325.84144429055</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="E105" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="F105" t="n">
-        <v>11.4294</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-52325.84144429055</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="E106" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>127.8217</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-52325.84144429055</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>273.3</v>
-      </c>
-      <c r="C107" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="D107" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="E107" t="n">
-        <v>273.3</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7025.0611</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-45300.78034429055</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="C108" t="n">
-        <v>273.9</v>
-      </c>
-      <c r="D108" t="n">
-        <v>273.9</v>
-      </c>
-      <c r="E108" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="F108" t="n">
-        <v>802.1228</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-44498.65754429055</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4165,14 +4017,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4204,14 +4050,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4243,14 +4083,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4282,14 +4116,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4321,14 +4149,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4360,14 +4182,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4399,14 +4215,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4438,14 +4248,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4477,14 +4281,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4516,14 +4314,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4555,14 +4347,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4594,14 +4380,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4633,14 +4413,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4672,20 +4446,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
       <c r="M122" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-22 BackTest ZRX.xlsx
@@ -880,7 +880,7 @@
         <v>2341.81505570947</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2343.81505570947</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-27672.98494429053</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-58862.04324429053</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-58730.04324429053</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-58727.94324429053</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-58730.04324429053</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-58734.44734429053</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-56819.30414429053</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-56906.80294429053</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-56906.80294429053</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-57528.36824429053</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-57165.00594429053</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-53800.58624429053</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-57662.63034429054</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-57294.77624429054</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-57288.65064429054</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,10 +3124,14 @@
         <v>-62505.28984429054</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>270.1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3157,11 +3161,19 @@
         <v>-62505.28984429054</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3202,19 @@
         <v>-60712.32034429054</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,10 +3243,14 @@
         <v>-60712.32034429054</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>269.7</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3256,11 +3280,19 @@
         <v>-60232.01014429054</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3321,19 @@
         <v>-61595.89074429054</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3751,14 +3791,10 @@
         <v>-54027.85384429055</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>271</v>
-      </c>
-      <c r="J102" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3791,14 +3827,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>271</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3830,14 +3860,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>271</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3899,14 +3923,10 @@
         <v>-52325.84144429055</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>272.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -3939,14 +3959,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3978,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4014,7 +4022,7 @@
         <v>-44498.65754429055</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4047,7 +4055,7 @@
         <v>-44370.70124429055</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4080,7 +4088,7 @@
         <v>-44762.11814429055</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4113,7 +4121,7 @@
         <v>-43459.19734429055</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4146,7 +4154,7 @@
         <v>-42860.34733913629</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4179,7 +4187,7 @@
         <v>-46113.13973913628</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4212,7 +4220,7 @@
         <v>-46313.13973913628</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4245,7 +4253,7 @@
         <v>-46313.13973913628</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4311,7 +4319,7 @@
         <v>-39728.29583913628</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4344,7 +4352,7 @@
         <v>-40098.32333913628</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4377,7 +4385,7 @@
         <v>-40098.32333913628</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4410,7 +4418,7 @@
         <v>-42796.00053913628</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4443,7 +4451,7 @@
         <v>-42796.00053913628</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>

--- a/BackTest/2020-01-22 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-22 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>2369.41505570947</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>2369.41505570947</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>5.6</v>
       </c>
       <c r="G4" t="n">
-        <v>2369.41505570947</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>36.4</v>
       </c>
       <c r="G5" t="n">
-        <v>2369.41505570947</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>25.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2369.41505570947</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>19.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2369.41505570947</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>30.9933</v>
       </c>
       <c r="G8" t="n">
-        <v>2369.41505570947</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>2369.41505570947</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>22.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2369.41505570947</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>22.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2369.41505570947</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>2375.41505570947</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>2375.41505570947</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>33.6</v>
       </c>
       <c r="G14" t="n">
-        <v>2341.81505570947</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>2341.81505570947</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2343.81505570947</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>16.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>207.4275</v>
       </c>
       <c r="G18" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>16.8</v>
       </c>
       <c r="G20" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>51.47</v>
       </c>
       <c r="G22" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>19.6</v>
       </c>
       <c r="G23" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>45.8</v>
       </c>
       <c r="G25" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>4180000</v>
       </c>
       <c r="G26" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>16532860.2086</v>
       </c>
       <c r="G27" t="n">
-        <v>2327.01505570947</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>30000</v>
       </c>
       <c r="G28" t="n">
-        <v>-27672.98494429053</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,19 @@
         <v>12.1872</v>
       </c>
       <c r="G29" t="n">
-        <v>-27672.98494429053</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>265.1</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1287,23 @@
         <v>37097.7265</v>
       </c>
       <c r="G30" t="n">
-        <v>-64770.71144429053</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1325,23 @@
         <v>5694.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-70465.21144429053</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>263.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1363,23 @@
         <v>13.7734</v>
       </c>
       <c r="G32" t="n">
-        <v>-70451.43804429052</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>263.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1401,23 @@
         <v>33.033</v>
       </c>
       <c r="G33" t="n">
-        <v>-70484.47104429052</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1439,23 @@
         <v>100.017</v>
       </c>
       <c r="G34" t="n">
-        <v>-70584.48804429053</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I34" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1477,23 @@
         <v>945.8944</v>
       </c>
       <c r="G35" t="n">
-        <v>-69638.59364429052</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>263.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1515,23 @@
         <v>25.41</v>
       </c>
       <c r="G36" t="n">
-        <v>-69664.00364429053</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>264.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1553,23 @@
         <v>1.0187</v>
       </c>
       <c r="G37" t="n">
-        <v>-69662.98494429053</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I37" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1591,23 @@
         <v>2303.0092</v>
       </c>
       <c r="G38" t="n">
-        <v>-67359.97574429052</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>264.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1629,23 @@
         <v>7.1035</v>
       </c>
       <c r="G39" t="n">
-        <v>-67359.97574429052</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1667,21 @@
         <v>376.5584</v>
       </c>
       <c r="G40" t="n">
-        <v>-66983.41734429053</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1703,21 @@
         <v>2299.9517</v>
       </c>
       <c r="G41" t="n">
-        <v>-69283.36904429054</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1739,21 @@
         <v>58.9103</v>
       </c>
       <c r="G42" t="n">
-        <v>-69224.45874429053</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1775,21 @@
         <v>9752.8441</v>
       </c>
       <c r="G43" t="n">
-        <v>-59471.61464429053</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1811,21 @@
         <v>24.8009</v>
       </c>
       <c r="G44" t="n">
-        <v>-59446.81374429053</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1847,21 @@
         <v>87.8807</v>
       </c>
       <c r="G45" t="n">
-        <v>-59534.69444429053</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1883,21 @@
         <v>4000</v>
       </c>
       <c r="G46" t="n">
-        <v>-59534.69444429053</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1919,21 @@
         <v>10.8455</v>
       </c>
       <c r="G47" t="n">
-        <v>-59545.53994429053</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1955,21 @@
         <v>685.9008</v>
       </c>
       <c r="G48" t="n">
-        <v>-58859.63914429053</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1991,21 @@
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>-58859.63914429053</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2027,21 @@
         <v>2.4041</v>
       </c>
       <c r="G50" t="n">
-        <v>-58862.04324429053</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2063,21 @@
         <v>16</v>
       </c>
       <c r="G51" t="n">
-        <v>-58878.04324429053</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2099,21 @@
         <v>148</v>
       </c>
       <c r="G52" t="n">
-        <v>-58730.04324429053</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2135,21 @@
         <v>2.1</v>
       </c>
       <c r="G53" t="n">
-        <v>-58727.94324429053</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2171,21 @@
         <v>2.1</v>
       </c>
       <c r="G54" t="n">
-        <v>-58730.04324429053</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2207,21 @@
         <v>4.4041</v>
       </c>
       <c r="G55" t="n">
-        <v>-58734.44734429053</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2243,21 @@
         <v>1915.1432</v>
       </c>
       <c r="G56" t="n">
-        <v>-56819.30414429053</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2279,21 @@
         <v>87.4988</v>
       </c>
       <c r="G57" t="n">
-        <v>-56906.80294429053</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2315,21 @@
         <v>36.9003</v>
       </c>
       <c r="G58" t="n">
-        <v>-56906.80294429053</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2351,21 @@
         <v>20.6952</v>
       </c>
       <c r="G59" t="n">
-        <v>-56927.49814429053</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2387,21 @@
         <v>433.1299</v>
       </c>
       <c r="G60" t="n">
-        <v>-56494.36824429053</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2423,21 @@
         <v>1357.6142</v>
       </c>
       <c r="G61" t="n">
-        <v>-56494.36824429053</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2459,21 @@
         <v>112</v>
       </c>
       <c r="G62" t="n">
-        <v>-56494.36824429053</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2495,21 @@
         <v>1034</v>
       </c>
       <c r="G63" t="n">
-        <v>-57528.36824429053</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2531,21 @@
         <v>1082.2162</v>
       </c>
       <c r="G64" t="n">
-        <v>-58610.58444429054</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2567,21 @@
         <v>9.9794</v>
       </c>
       <c r="G65" t="n">
-        <v>-58600.60504429054</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2603,21 @@
         <v>9.9794</v>
       </c>
       <c r="G66" t="n">
-        <v>-58610.58444429054</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2639,21 @@
         <v>6191.8694</v>
       </c>
       <c r="G67" t="n">
-        <v>-58610.58444429054</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2675,21 @@
         <v>211</v>
       </c>
       <c r="G68" t="n">
-        <v>-58399.58444429054</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2711,21 @@
         <v>211</v>
       </c>
       <c r="G69" t="n">
-        <v>-58399.58444429054</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2747,21 @@
         <v>30</v>
       </c>
       <c r="G70" t="n">
-        <v>-58369.58444429054</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2783,21 @@
         <v>4344.0788</v>
       </c>
       <c r="G71" t="n">
-        <v>-54025.50564429053</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2819,21 @@
         <v>187.4708</v>
       </c>
       <c r="G72" t="n">
-        <v>-54212.97644429054</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2855,21 @@
         <v>2952.0295</v>
       </c>
       <c r="G73" t="n">
-        <v>-57165.00594429053</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2891,21 @@
         <v>3364.4197</v>
       </c>
       <c r="G74" t="n">
-        <v>-53800.58624429053</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2927,21 @@
         <v>371.866</v>
       </c>
       <c r="G75" t="n">
-        <v>-54172.45224429054</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2963,21 @@
         <v>769.0024</v>
       </c>
       <c r="G76" t="n">
-        <v>-53403.44984429054</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2999,21 @@
         <v>768.1515000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>-52635.29834429054</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3035,21 @@
         <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>-52635.29834429054</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3071,21 @@
         <v>192.0404</v>
       </c>
       <c r="G79" t="n">
-        <v>-52443.25794429054</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3107,21 @@
         <v>5219.3724</v>
       </c>
       <c r="G80" t="n">
-        <v>-57662.63034429054</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3143,21 @@
         <v>367.8541</v>
       </c>
       <c r="G81" t="n">
-        <v>-57294.77624429054</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3179,21 @@
         <v>6.1256</v>
       </c>
       <c r="G82" t="n">
-        <v>-57288.65064429054</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,22 +3215,21 @@
         <v>5216.6392</v>
       </c>
       <c r="G83" t="n">
-        <v>-62505.28984429054</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3158,26 +3251,21 @@
         <v>2.7333</v>
       </c>
       <c r="G84" t="n">
-        <v>-62505.28984429054</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3199,26 +3287,21 @@
         <v>1792.9695</v>
       </c>
       <c r="G85" t="n">
-        <v>-60712.32034429054</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>270.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3240,22 +3323,21 @@
         <v>127.548</v>
       </c>
       <c r="G86" t="n">
-        <v>-60712.32034429054</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3277,26 +3359,21 @@
         <v>480.3102</v>
       </c>
       <c r="G87" t="n">
-        <v>-60232.01014429054</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3318,26 +3395,21 @@
         <v>1363.8806</v>
       </c>
       <c r="G88" t="n">
-        <v>-61595.89074429054</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>270.8</v>
-      </c>
-      <c r="J88" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>265.1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3359,18 +3431,21 @@
         <v>295.2347</v>
       </c>
       <c r="G89" t="n">
-        <v>-61891.12544429054</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3392,18 +3467,21 @@
         <v>362.4953</v>
       </c>
       <c r="G90" t="n">
-        <v>-62253.62074429054</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3425,18 +3503,21 @@
         <v>3252.7924</v>
       </c>
       <c r="G91" t="n">
-        <v>-59000.82834429054</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3458,18 +3539,21 @@
         <v>27.7276</v>
       </c>
       <c r="G92" t="n">
-        <v>-59028.55594429054</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3491,18 +3575,21 @@
         <v>195</v>
       </c>
       <c r="G93" t="n">
-        <v>-58833.55594429054</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3524,18 +3611,21 @@
         <v>116</v>
       </c>
       <c r="G94" t="n">
-        <v>-58717.55594429054</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3557,18 +3647,21 @@
         <v>346.069</v>
       </c>
       <c r="G95" t="n">
-        <v>-58717.55594429054</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3590,18 +3683,21 @@
         <v>213</v>
       </c>
       <c r="G96" t="n">
-        <v>-58504.55594429054</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3623,18 +3719,21 @@
         <v>85.33410000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-58419.22184429054</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3656,18 +3755,21 @@
         <v>4379.808</v>
       </c>
       <c r="G98" t="n">
-        <v>-54039.41384429055</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3689,18 +3791,21 @@
         <v>7635.2292</v>
       </c>
       <c r="G99" t="n">
-        <v>-54039.41384429055</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3722,18 +3827,21 @@
         <v>500.7597</v>
       </c>
       <c r="G100" t="n">
-        <v>-54039.41384429055</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3755,18 +3863,21 @@
         <v>452.2141</v>
       </c>
       <c r="G101" t="n">
-        <v>-54039.41384429055</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3788,18 +3899,21 @@
         <v>11.56</v>
       </c>
       <c r="G102" t="n">
-        <v>-54027.85384429055</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3821,18 +3935,21 @@
         <v>1800</v>
       </c>
       <c r="G103" t="n">
-        <v>-52227.85384429055</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3854,18 +3971,21 @@
         <v>97.9876</v>
       </c>
       <c r="G104" t="n">
-        <v>-52325.84144429055</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3887,18 +4007,21 @@
         <v>11.4294</v>
       </c>
       <c r="G105" t="n">
-        <v>-52325.84144429055</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3920,18 +4043,21 @@
         <v>127.8217</v>
       </c>
       <c r="G106" t="n">
-        <v>-52325.84144429055</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3953,18 +4079,21 @@
         <v>7025.0611</v>
       </c>
       <c r="G107" t="n">
-        <v>-45300.78034429055</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3986,18 +4115,21 @@
         <v>802.1228</v>
       </c>
       <c r="G108" t="n">
-        <v>-44498.65754429055</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4019,18 +4151,21 @@
         <v>515.6281</v>
       </c>
       <c r="G109" t="n">
-        <v>-44498.65754429055</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4052,18 +4187,21 @@
         <v>127.9563</v>
       </c>
       <c r="G110" t="n">
-        <v>-44370.70124429055</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4085,18 +4223,21 @@
         <v>391.4169</v>
       </c>
       <c r="G111" t="n">
-        <v>-44762.11814429055</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4118,18 +4259,21 @@
         <v>1302.9208</v>
       </c>
       <c r="G112" t="n">
-        <v>-43459.19734429055</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4151,18 +4295,21 @@
         <v>598.850005154265</v>
       </c>
       <c r="G113" t="n">
-        <v>-42860.34733913629</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>265.1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1.034230479064504</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4184,18 +4331,15 @@
         <v>3252.7924</v>
       </c>
       <c r="G114" t="n">
-        <v>-46113.13973913628</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4217,18 +4361,15 @@
         <v>200</v>
       </c>
       <c r="G115" t="n">
-        <v>-46313.13973913628</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4250,18 +4391,15 @@
         <v>14</v>
       </c>
       <c r="G116" t="n">
-        <v>-46313.13973913628</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4283,18 +4421,15 @@
         <v>4090.5542</v>
       </c>
       <c r="G117" t="n">
-        <v>-42222.58553913629</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4316,18 +4451,15 @@
         <v>2494.2897</v>
       </c>
       <c r="G118" t="n">
-        <v>-39728.29583913628</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4349,18 +4481,15 @@
         <v>370.0275</v>
       </c>
       <c r="G119" t="n">
-        <v>-40098.32333913628</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4382,18 +4511,15 @@
         <v>31.2517</v>
       </c>
       <c r="G120" t="n">
-        <v>-40098.32333913628</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4415,18 +4541,15 @@
         <v>2697.6772</v>
       </c>
       <c r="G121" t="n">
-        <v>-42796.00053913628</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4448,18 +4571,15 @@
         <v>214</v>
       </c>
       <c r="G122" t="n">
-        <v>-42796.00053913628</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
